--- a/Arquitetura computacional/Estudo métricas.xlsx
+++ b/Arquitetura computacional/Estudo métricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosec\OneDrive\Documentos\Arquivos PI\Projeto_individual\Arquitetura computacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D85EE99-2ED3-4916-9EC4-8495ED36659E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DC757-8FBC-43D3-91A1-650F6E4A9422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BAF91234-1A2C-47EB-AAA2-FE1C957E9C66}"/>
   </bookViews>
@@ -89,7 +89,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +99,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,10 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -145,6 +156,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +481,7 @@
   <dimension ref="B3:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,59 +497,59 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.25</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
